--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Wnt4-Fzd2.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Wnt4-Fzd2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.92048115261262</v>
+        <v>2.949238666666667</v>
       </c>
       <c r="H2">
-        <v>1.92048115261262</v>
+        <v>8.847716</v>
       </c>
       <c r="I2">
-        <v>0.4777449096564341</v>
+        <v>0.5666145353461176</v>
       </c>
       <c r="J2">
-        <v>0.4777449096564341</v>
+        <v>0.5666145353461176</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>10.0431001646814</v>
+        <v>0.1278803333333333</v>
       </c>
       <c r="N2">
-        <v>10.0431001646814</v>
+        <v>0.383641</v>
       </c>
       <c r="O2">
-        <v>0.8476399449834829</v>
+        <v>0.009974564977605908</v>
       </c>
       <c r="P2">
-        <v>0.8476399449834829</v>
+        <v>0.009974564977605908</v>
       </c>
       <c r="Q2">
-        <v>19.28758458007133</v>
+        <v>0.3771496237728889</v>
       </c>
       <c r="R2">
-        <v>19.28758458007133</v>
+        <v>3.394346613956</v>
       </c>
       <c r="S2">
-        <v>0.4049556689373188</v>
+        <v>0.005651733500065829</v>
       </c>
       <c r="T2">
-        <v>0.4049556689373188</v>
+        <v>0.005651733500065829</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.92048115261262</v>
+        <v>2.949238666666667</v>
       </c>
       <c r="H3">
-        <v>1.92048115261262</v>
+        <v>8.847716</v>
       </c>
       <c r="I3">
-        <v>0.4777449096564341</v>
+        <v>0.5666145353461176</v>
       </c>
       <c r="J3">
-        <v>0.4777449096564341</v>
+        <v>0.5666145353461176</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.80520904268742</v>
+        <v>10.61985133333333</v>
       </c>
       <c r="N3">
-        <v>1.80520904268742</v>
+        <v>31.859554</v>
       </c>
       <c r="O3">
-        <v>0.1523600550165171</v>
+        <v>0.8283400145723324</v>
       </c>
       <c r="P3">
-        <v>0.1523600550165171</v>
+        <v>0.8283400145723324</v>
       </c>
       <c r="Q3">
-        <v>3.466869943007061</v>
+        <v>31.32047618651822</v>
       </c>
       <c r="R3">
-        <v>3.466869943007061</v>
+        <v>281.884285678664</v>
       </c>
       <c r="S3">
-        <v>0.0727892407191153</v>
+        <v>0.4693494924654984</v>
       </c>
       <c r="T3">
-        <v>0.0727892407191153</v>
+        <v>0.4693494924654984</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.19036539825296</v>
+        <v>2.949238666666667</v>
       </c>
       <c r="H4">
-        <v>1.19036539825296</v>
+        <v>8.847716</v>
       </c>
       <c r="I4">
-        <v>0.2961190266683217</v>
+        <v>0.5666145353461176</v>
       </c>
       <c r="J4">
-        <v>0.2961190266683217</v>
+        <v>0.5666145353461176</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.0431001646814</v>
+        <v>2.072911</v>
       </c>
       <c r="N4">
-        <v>10.0431001646814</v>
+        <v>6.218733</v>
       </c>
       <c r="O4">
-        <v>0.8476399449834829</v>
+        <v>0.1616854204500617</v>
       </c>
       <c r="P4">
-        <v>0.8476399449834829</v>
+        <v>0.1616854204500617</v>
       </c>
       <c r="Q4">
-        <v>11.95495892722534</v>
+        <v>6.113509273758666</v>
       </c>
       <c r="R4">
-        <v>11.95495892722534</v>
+        <v>55.021583463828</v>
       </c>
       <c r="S4">
-        <v>0.2510023154736987</v>
+        <v>0.09161330938055336</v>
       </c>
       <c r="T4">
-        <v>0.2510023154736987</v>
+        <v>0.09161330938055336</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.19036539825296</v>
+        <v>1.220831</v>
       </c>
       <c r="H5">
-        <v>1.19036539825296</v>
+        <v>3.662493</v>
       </c>
       <c r="I5">
-        <v>0.2961190266683217</v>
+        <v>0.2345488676855596</v>
       </c>
       <c r="J5">
-        <v>0.2961190266683217</v>
+        <v>0.2345488676855596</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.80520904268742</v>
+        <v>0.1278803333333333</v>
       </c>
       <c r="N5">
-        <v>1.80520904268742</v>
+        <v>0.383641</v>
       </c>
       <c r="O5">
-        <v>0.1523600550165171</v>
+        <v>0.009974564977605908</v>
       </c>
       <c r="P5">
-        <v>0.1523600550165171</v>
+        <v>0.009974564977605908</v>
       </c>
       <c r="Q5">
-        <v>2.148858381028456</v>
+        <v>0.1561202752236667</v>
       </c>
       <c r="R5">
-        <v>2.148858381028456</v>
+        <v>1.405082477013</v>
       </c>
       <c r="S5">
-        <v>0.045116711194623</v>
+        <v>0.002339522921153505</v>
       </c>
       <c r="T5">
-        <v>0.045116711194623</v>
+        <v>0.002339522921153505</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,57 +776,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.909041707062101</v>
+        <v>1.220831</v>
       </c>
       <c r="H6">
-        <v>0.909041707062101</v>
+        <v>3.662493</v>
       </c>
       <c r="I6">
-        <v>0.2261360636752443</v>
+        <v>0.2345488676855596</v>
       </c>
       <c r="J6">
-        <v>0.2261360636752443</v>
+        <v>0.2345488676855596</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.0431001646814</v>
+        <v>10.61985133333333</v>
       </c>
       <c r="N6">
-        <v>10.0431001646814</v>
+        <v>31.859554</v>
       </c>
       <c r="O6">
-        <v>0.8476399449834829</v>
+        <v>0.8283400145723324</v>
       </c>
       <c r="P6">
-        <v>0.8476399449834829</v>
+        <v>0.8283400145723324</v>
       </c>
       <c r="Q6">
-        <v>9.129596917897647</v>
+        <v>12.96504372312467</v>
       </c>
       <c r="R6">
-        <v>9.129596917897647</v>
+        <v>116.685393508122</v>
       </c>
       <c r="S6">
-        <v>0.1916819605724655</v>
+        <v>0.1942862124765805</v>
       </c>
       <c r="T6">
-        <v>0.1916819605724655</v>
+        <v>0.1942862124765805</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.909041707062101</v>
+        <v>1.220831</v>
       </c>
       <c r="H7">
-        <v>0.909041707062101</v>
+        <v>3.662493</v>
       </c>
       <c r="I7">
-        <v>0.2261360636752443</v>
+        <v>0.2345488676855596</v>
       </c>
       <c r="J7">
-        <v>0.2261360636752443</v>
+        <v>0.2345488676855596</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.80520904268742</v>
+        <v>2.072911</v>
       </c>
       <c r="N7">
-        <v>1.80520904268742</v>
+        <v>6.218733</v>
       </c>
       <c r="O7">
-        <v>0.1523600550165171</v>
+        <v>0.1616854204500617</v>
       </c>
       <c r="P7">
-        <v>0.1523600550165171</v>
+        <v>0.1616854204500617</v>
       </c>
       <c r="Q7">
-        <v>1.641010309768513</v>
+        <v>2.530674009041</v>
       </c>
       <c r="R7">
-        <v>1.641010309768513</v>
+        <v>22.776066081369</v>
       </c>
       <c r="S7">
-        <v>0.03445410310277885</v>
+        <v>0.03792313228782559</v>
       </c>
       <c r="T7">
-        <v>0.03445410310277885</v>
+        <v>0.03792313228782559</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.034948</v>
+      </c>
+      <c r="H8">
+        <v>3.104844</v>
+      </c>
+      <c r="I8">
+        <v>0.1988365969683228</v>
+      </c>
+      <c r="J8">
+        <v>0.1988365969683228</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.1278803333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.383641</v>
+      </c>
+      <c r="O8">
+        <v>0.009974564977605908</v>
+      </c>
+      <c r="P8">
+        <v>0.009974564977605908</v>
+      </c>
+      <c r="Q8">
+        <v>0.1323494952226667</v>
+      </c>
+      <c r="R8">
+        <v>1.191145457004</v>
+      </c>
+      <c r="S8">
+        <v>0.001983308556386574</v>
+      </c>
+      <c r="T8">
+        <v>0.001983308556386574</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.034948</v>
+      </c>
+      <c r="H9">
+        <v>3.104844</v>
+      </c>
+      <c r="I9">
+        <v>0.1988365969683228</v>
+      </c>
+      <c r="J9">
+        <v>0.1988365969683228</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>10.61985133333333</v>
+      </c>
+      <c r="N9">
+        <v>31.859554</v>
+      </c>
+      <c r="O9">
+        <v>0.8283400145723324</v>
+      </c>
+      <c r="P9">
+        <v>0.8283400145723324</v>
+      </c>
+      <c r="Q9">
+        <v>10.99099389773067</v>
+      </c>
+      <c r="R9">
+        <v>98.91894507957599</v>
+      </c>
+      <c r="S9">
+        <v>0.1647043096302535</v>
+      </c>
+      <c r="T9">
+        <v>0.1647043096302535</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.034948</v>
+      </c>
+      <c r="H10">
+        <v>3.104844</v>
+      </c>
+      <c r="I10">
+        <v>0.1988365969683228</v>
+      </c>
+      <c r="J10">
+        <v>0.1988365969683228</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2.072911</v>
+      </c>
+      <c r="N10">
+        <v>6.218733</v>
+      </c>
+      <c r="O10">
+        <v>0.1616854204500617</v>
+      </c>
+      <c r="P10">
+        <v>0.1616854204500617</v>
+      </c>
+      <c r="Q10">
+        <v>2.145355093628</v>
+      </c>
+      <c r="R10">
+        <v>19.308195842652</v>
+      </c>
+      <c r="S10">
+        <v>0.03214897878168273</v>
+      </c>
+      <c r="T10">
+        <v>0.03214897878168273</v>
       </c>
     </row>
   </sheetData>
